--- a/biology/Zoologie/René-Léon_Bourret/René-Léon_Bourret.xlsx
+++ b/biology/Zoologie/René-Léon_Bourret/René-Léon_Bourret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9-L%C3%A9on_Bourret</t>
+          <t>René-Léon_Bourret</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">René-Léon Bourret  est un géologue et un zoologiste français né le 28 janvier 1884 à Nérac (Lot-et-Garonne) et mort le 28 juillet 1957 à Toulouse (Haute-Garonne).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9-L%C3%A9on_Bourret</t>
+          <t>René-Léon_Bourret</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">René-Léon Bourret arrive en Indochine française en 1900 dans les rangs de l’armée. Il commence à travailler pour le cadastre en 1907. Après la Première Guerre mondiale, il travaille pour le service de recherche géologique et minière et obtient un doctorat de géologie à l’université de Toulouse. Il commence à faire paraître des études géologiques dans les années 1920 avant de se consacrer aux reptiles et aux amphibiens. En 1925, il devient professeur à l’École supérieure des sciences de l’université indochinoise d’Hanoï.
 Il fait paraître en 1934 Sur une petite collection de serpents du Tonkin. À partir de cette année-là, il commence la publication de sa série Notes herpétologiques sur l'Indochine française.
